--- a/biology/Botanique/Pogonieae/Pogonieae.xlsx
+++ b/biology/Botanique/Pogonieae/Pogonieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pogonieae sont une tribu de plantes de la famille des Orchidaceae.
 Le genre type est Pogonia Juss. (1789).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La couleur des pétales et des sépales est rose, quelques fois blanche ou bleuâtre. Leurs sépales ont une forme oblongue, elliptique ou lancéolée.
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distribution des espèces va du Sud au Nord des Amériques et dans l'est de l'Asie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distribution des espèces va du Sud au Nord des Amériques et dans l'est de l'Asie.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t xml:space="preserve">Liste des genres </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cleistes
 Duckeella
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pfitzer ex Garay &amp; Dunsterv., Venezuela Orchids Illustrated (Venez. Orchids III) Vol.3, London: Duetsch., 2: 28 (1961).</t>
         </is>
